--- a/MovieData.xlsx
+++ b/MovieData.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joel\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC2CD8FA-6987-4744-9C26-BEC6C2553703}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17820" yWindow="3450" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17820" yWindow="3456" windowWidth="21600" windowHeight="11388"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>Budget</t>
   </si>
@@ -97,12 +91,102 @@
   </si>
   <si>
     <t>Worldwide Gross</t>
+  </si>
+  <si>
+    <t>THE LITTLE MERMAID</t>
+  </si>
+  <si>
+    <t>HERCULES</t>
+  </si>
+  <si>
+    <t>THE NIGHTMARE BEFORE CHRISTMAS</t>
+  </si>
+  <si>
+    <t>ALADDIN</t>
+  </si>
+  <si>
+    <t>THE LION KING</t>
+  </si>
+  <si>
+    <t>ATLANTIS - DISNEY</t>
+  </si>
+  <si>
+    <t>TREASURE PLANET</t>
+  </si>
+  <si>
+    <t>THE IRON GIANT</t>
+  </si>
+  <si>
+    <t>THE JUNGLE BOOK</t>
+  </si>
+  <si>
+    <t>THE JUNGLE BOOK 2</t>
+  </si>
+  <si>
+    <t>POCAHONTAS</t>
+  </si>
+  <si>
+    <t>TOY STORY</t>
+  </si>
+  <si>
+    <t>TOY STORY 2</t>
+  </si>
+  <si>
+    <t>TOY STORY 3</t>
+  </si>
+  <si>
+    <t>THE HUNCHBACK OF NOTRE DAME</t>
+  </si>
+  <si>
+    <t>MULAN</t>
+  </si>
+  <si>
+    <t>A BUG'S LIFE</t>
+  </si>
+  <si>
+    <t>TARZAN</t>
+  </si>
+  <si>
+    <t>DINOSAUR</t>
+  </si>
+  <si>
+    <t>101 DALMATIANS</t>
+  </si>
+  <si>
+    <t>THE EMPEROR'S NEW GROOVE</t>
+  </si>
+  <si>
+    <t>MONSTERS, INC.</t>
+  </si>
+  <si>
+    <t>RETURN TO NEVER LAND</t>
+  </si>
+  <si>
+    <t>LILO &amp; STITCH</t>
+  </si>
+  <si>
+    <t>FINDING NEMO</t>
+  </si>
+  <si>
+    <t>FINDING DORY</t>
+  </si>
+  <si>
+    <t>BROTHER BEAR</t>
+  </si>
+  <si>
+    <t>THE INCREDIBLES</t>
+  </si>
+  <si>
+    <t>THE INCREDIBLES 2</t>
+  </si>
+  <si>
+    <t>NATIONAL TREASURE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -430,30 +514,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
-    <col min="9" max="9" width="23.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" customWidth="1"/>
+    <col min="9" max="9" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -946,6 +1030,876 @@
         <v>22</v>
       </c>
     </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>111543479</v>
+      </c>
+      <c r="B18" s="3">
+        <v>6031914</v>
+      </c>
+      <c r="C18" s="3">
+        <v>274176364</v>
+      </c>
+      <c r="D18" s="3">
+        <v>40000000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>88</v>
+      </c>
+      <c r="F18" s="3">
+        <v>7.6</v>
+      </c>
+      <c r="G18" s="3">
+        <v>93</v>
+      </c>
+      <c r="H18" s="3">
+        <v>88</v>
+      </c>
+      <c r="I18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>99112101</v>
+      </c>
+      <c r="B19" s="3">
+        <v>249567</v>
+      </c>
+      <c r="C19" s="3">
+        <v>252712101</v>
+      </c>
+      <c r="D19" s="3">
+        <v>85000000</v>
+      </c>
+      <c r="E19">
+        <v>74</v>
+      </c>
+      <c r="F19">
+        <v>7.3</v>
+      </c>
+      <c r="G19" s="3">
+        <v>83</v>
+      </c>
+      <c r="H19" s="3">
+        <v>75</v>
+      </c>
+      <c r="I19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>75085668</v>
+      </c>
+      <c r="B20" s="3">
+        <v>88850032</v>
+      </c>
+      <c r="C20" s="3">
+        <v>191232</v>
+      </c>
+      <c r="D20" s="3">
+        <v>18000000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>82</v>
+      </c>
+      <c r="F20" s="3">
+        <v>8</v>
+      </c>
+      <c r="G20" s="3">
+        <v>95</v>
+      </c>
+      <c r="H20" s="3">
+        <v>91</v>
+      </c>
+      <c r="I20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>217350219</v>
+      </c>
+      <c r="B21" s="3">
+        <v>196664</v>
+      </c>
+      <c r="C21" s="3">
+        <v>504050219</v>
+      </c>
+      <c r="D21" s="3">
+        <v>28000000</v>
+      </c>
+      <c r="E21">
+        <v>86</v>
+      </c>
+      <c r="F21">
+        <v>8</v>
+      </c>
+      <c r="G21" s="3">
+        <v>94</v>
+      </c>
+      <c r="H21" s="3">
+        <v>92</v>
+      </c>
+      <c r="I21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>422783777</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1586753</v>
+      </c>
+      <c r="C22" s="3">
+        <v>968511805</v>
+      </c>
+      <c r="D22" s="3">
+        <v>45000000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>83</v>
+      </c>
+      <c r="F22" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="G22" s="3">
+        <v>93</v>
+      </c>
+      <c r="H22" s="3">
+        <v>93</v>
+      </c>
+      <c r="I22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>84056472</v>
+      </c>
+      <c r="B23" s="3">
+        <v>329011</v>
+      </c>
+      <c r="C23" s="3">
+        <v>186053725</v>
+      </c>
+      <c r="D23" s="3">
+        <v>120000000</v>
+      </c>
+      <c r="E23">
+        <v>52</v>
+      </c>
+      <c r="F23">
+        <v>6.9</v>
+      </c>
+      <c r="G23" s="3">
+        <v>49</v>
+      </c>
+      <c r="H23" s="3">
+        <v>53</v>
+      </c>
+      <c r="I23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>38176783</v>
+      </c>
+      <c r="B24" s="3">
+        <v>12083248</v>
+      </c>
+      <c r="C24" s="3">
+        <v>110041363</v>
+      </c>
+      <c r="D24" s="3">
+        <v>140000000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>60</v>
+      </c>
+      <c r="F24" s="3">
+        <v>7.2</v>
+      </c>
+      <c r="G24" s="3">
+        <v>69</v>
+      </c>
+      <c r="H24" s="3">
+        <v>71</v>
+      </c>
+      <c r="I24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>23159305</v>
+      </c>
+      <c r="B25" s="3">
+        <v>5732614</v>
+      </c>
+      <c r="C25" s="3">
+        <v>23179225</v>
+      </c>
+      <c r="D25" s="3">
+        <v>70000000</v>
+      </c>
+      <c r="E25">
+        <v>85</v>
+      </c>
+      <c r="F25">
+        <v>8</v>
+      </c>
+      <c r="G25" s="3">
+        <v>96</v>
+      </c>
+      <c r="H25" s="3">
+        <v>90</v>
+      </c>
+      <c r="I25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>141843612</v>
+      </c>
+      <c r="B26" s="3">
+        <v>5291670</v>
+      </c>
+      <c r="C26" s="3">
+        <v>210310084</v>
+      </c>
+      <c r="D26" s="3">
+        <v>4000000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>65</v>
+      </c>
+      <c r="F26" s="3">
+        <v>7.6</v>
+      </c>
+      <c r="G26" s="3">
+        <v>87</v>
+      </c>
+      <c r="H26" s="3">
+        <v>82</v>
+      </c>
+      <c r="I26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>47901582</v>
+      </c>
+      <c r="B27" s="3">
+        <v>11441733</v>
+      </c>
+      <c r="C27" s="3">
+        <v>186307412</v>
+      </c>
+      <c r="D27" s="3">
+        <v>20000000</v>
+      </c>
+      <c r="E27">
+        <v>38</v>
+      </c>
+      <c r="F27">
+        <v>5.4</v>
+      </c>
+      <c r="G27" s="3">
+        <v>19</v>
+      </c>
+      <c r="H27" s="3">
+        <v>29</v>
+      </c>
+      <c r="I27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>141579773</v>
+      </c>
+      <c r="B28" s="3">
+        <v>2689714</v>
+      </c>
+      <c r="C28" s="3">
+        <v>346079773</v>
+      </c>
+      <c r="D28" s="3">
+        <v>55000000</v>
+      </c>
+      <c r="E28" s="3">
+        <v>58</v>
+      </c>
+      <c r="F28" s="3">
+        <v>6.7</v>
+      </c>
+      <c r="G28" s="3">
+        <v>57</v>
+      </c>
+      <c r="H28" s="3">
+        <v>64</v>
+      </c>
+      <c r="I28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>222498679</v>
+      </c>
+      <c r="B29" s="3">
+        <v>29140617</v>
+      </c>
+      <c r="C29" s="3">
+        <v>415674866</v>
+      </c>
+      <c r="D29" s="3">
+        <v>30000000</v>
+      </c>
+      <c r="E29">
+        <v>95</v>
+      </c>
+      <c r="F29">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="G29" s="3">
+        <v>100</v>
+      </c>
+      <c r="H29" s="3">
+        <v>92</v>
+      </c>
+      <c r="I29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>242852179</v>
+      </c>
+      <c r="B30" s="3">
+        <v>300163</v>
+      </c>
+      <c r="C30" s="3">
+        <v>508793269</v>
+      </c>
+      <c r="D30" s="3">
+        <v>90000000</v>
+      </c>
+      <c r="E30" s="3">
+        <v>88</v>
+      </c>
+      <c r="F30" s="3">
+        <v>7.9</v>
+      </c>
+      <c r="G30" s="3">
+        <v>100</v>
+      </c>
+      <c r="H30" s="3">
+        <v>86</v>
+      </c>
+      <c r="I30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>415004880</v>
+      </c>
+      <c r="B31" s="3">
+        <v>110307189</v>
+      </c>
+      <c r="C31" s="3">
+        <v>1066969703</v>
+      </c>
+      <c r="D31" s="3">
+        <v>200000000</v>
+      </c>
+      <c r="E31">
+        <v>92</v>
+      </c>
+      <c r="F31">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="G31" s="3">
+        <v>98</v>
+      </c>
+      <c r="H31" s="3">
+        <v>89</v>
+      </c>
+      <c r="I31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>100138851</v>
+      </c>
+      <c r="B32" s="3">
+        <v>21037414</v>
+      </c>
+      <c r="C32" s="3">
+        <v>325338851</v>
+      </c>
+      <c r="D32" s="3">
+        <v>100000000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>74</v>
+      </c>
+      <c r="F32" s="3">
+        <v>6.9</v>
+      </c>
+      <c r="G32" s="3">
+        <v>72</v>
+      </c>
+      <c r="H32" s="3">
+        <v>70</v>
+      </c>
+      <c r="I32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>120620254</v>
+      </c>
+      <c r="B33" s="3">
+        <v>22745143</v>
+      </c>
+      <c r="C33" s="3">
+        <v>304320254</v>
+      </c>
+      <c r="D33" s="3">
+        <v>90000000</v>
+      </c>
+      <c r="E33">
+        <v>71</v>
+      </c>
+      <c r="F33">
+        <v>7.6</v>
+      </c>
+      <c r="G33" s="3">
+        <v>86</v>
+      </c>
+      <c r="H33" s="3">
+        <v>85</v>
+      </c>
+      <c r="I33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>162798565</v>
+      </c>
+      <c r="B34" s="3">
+        <v>291121</v>
+      </c>
+      <c r="C34" s="3">
+        <v>363258859</v>
+      </c>
+      <c r="D34" s="3">
+        <v>120000000</v>
+      </c>
+      <c r="E34" s="3">
+        <v>77</v>
+      </c>
+      <c r="F34" s="3">
+        <v>7.2</v>
+      </c>
+      <c r="G34" s="3">
+        <v>92</v>
+      </c>
+      <c r="H34" s="3">
+        <v>72</v>
+      </c>
+      <c r="I34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>171091819</v>
+      </c>
+      <c r="B35" s="3">
+        <v>34221968</v>
+      </c>
+      <c r="C35" s="3">
+        <v>448191819</v>
+      </c>
+      <c r="D35" s="3">
+        <v>130000000</v>
+      </c>
+      <c r="E35">
+        <v>79</v>
+      </c>
+      <c r="F35">
+        <v>7.3</v>
+      </c>
+      <c r="G35" s="3">
+        <v>88</v>
+      </c>
+      <c r="H35" s="3">
+        <v>75</v>
+      </c>
+      <c r="I35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>137758063</v>
+      </c>
+      <c r="B36" s="3">
+        <v>38854851</v>
+      </c>
+      <c r="C36" s="3">
+        <v>349822765</v>
+      </c>
+      <c r="D36" s="3">
+        <v>127000000</v>
+      </c>
+      <c r="E36" s="3">
+        <v>56</v>
+      </c>
+      <c r="F36" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="G36" s="3">
+        <v>65</v>
+      </c>
+      <c r="H36" s="3">
+        <v>48</v>
+      </c>
+      <c r="I36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
+        <v>144880014</v>
+      </c>
+      <c r="B37" s="3">
+        <v>2389226</v>
+      </c>
+      <c r="C37" s="3">
+        <v>216026182</v>
+      </c>
+      <c r="D37" s="3">
+        <v>4000000</v>
+      </c>
+      <c r="E37">
+        <v>83</v>
+      </c>
+      <c r="F37">
+        <v>7.2</v>
+      </c>
+      <c r="G37" s="3">
+        <v>98</v>
+      </c>
+      <c r="H37" s="3">
+        <v>76</v>
+      </c>
+      <c r="I37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
+        <v>89302687</v>
+      </c>
+      <c r="B38" s="3">
+        <v>9812302</v>
+      </c>
+      <c r="C38" s="3">
+        <v>169327687</v>
+      </c>
+      <c r="D38" s="3">
+        <v>100000000</v>
+      </c>
+      <c r="E38" s="3">
+        <v>70</v>
+      </c>
+      <c r="F38" s="3">
+        <v>7.4</v>
+      </c>
+      <c r="G38" s="3">
+        <v>85</v>
+      </c>
+      <c r="H38" s="3">
+        <v>83</v>
+      </c>
+      <c r="I38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
+        <v>289916256</v>
+      </c>
+      <c r="B39" s="3">
+        <v>62577067</v>
+      </c>
+      <c r="C39" s="3">
+        <v>630761313</v>
+      </c>
+      <c r="D39" s="3">
+        <v>115000000</v>
+      </c>
+      <c r="E39">
+        <v>78</v>
+      </c>
+      <c r="F39">
+        <v>8.1</v>
+      </c>
+      <c r="G39" s="3">
+        <v>96</v>
+      </c>
+      <c r="H39" s="3">
+        <v>90</v>
+      </c>
+      <c r="I39" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
+        <v>48430258</v>
+      </c>
+      <c r="B40" s="3">
+        <v>11889631</v>
+      </c>
+      <c r="C40" s="3">
+        <v>115121981</v>
+      </c>
+      <c r="D40" s="3">
+        <v>20000000</v>
+      </c>
+      <c r="E40" s="3">
+        <v>49</v>
+      </c>
+      <c r="F40" s="3">
+        <v>5.8</v>
+      </c>
+      <c r="G40" s="3">
+        <v>45</v>
+      </c>
+      <c r="H40" s="3">
+        <v>38</v>
+      </c>
+      <c r="I40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="3">
+        <v>145794338</v>
+      </c>
+      <c r="B41" s="3">
+        <v>35260212</v>
+      </c>
+      <c r="C41" s="3">
+        <v>273144151</v>
+      </c>
+      <c r="D41" s="3">
+        <v>80000000</v>
+      </c>
+      <c r="E41">
+        <v>73</v>
+      </c>
+      <c r="F41">
+        <v>7.2</v>
+      </c>
+      <c r="G41" s="3">
+        <v>86</v>
+      </c>
+      <c r="H41" s="3">
+        <v>77</v>
+      </c>
+      <c r="I41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
+        <v>380843261</v>
+      </c>
+      <c r="B42" s="3">
+        <v>70251710</v>
+      </c>
+      <c r="C42" s="3">
+        <v>941615536</v>
+      </c>
+      <c r="D42" s="3">
+        <v>94000000</v>
+      </c>
+      <c r="E42" s="3">
+        <v>90</v>
+      </c>
+      <c r="F42" s="3">
+        <v>8.1</v>
+      </c>
+      <c r="G42" s="3">
+        <v>99</v>
+      </c>
+      <c r="H42" s="3">
+        <v>86</v>
+      </c>
+      <c r="I42" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="3">
+        <v>486295561</v>
+      </c>
+      <c r="B43" s="3">
+        <v>135060273</v>
+      </c>
+      <c r="C43" s="3">
+        <v>1028570889</v>
+      </c>
+      <c r="D43" s="3">
+        <v>200000000</v>
+      </c>
+      <c r="E43">
+        <v>77</v>
+      </c>
+      <c r="F43">
+        <v>7.3</v>
+      </c>
+      <c r="G43" s="3">
+        <v>94</v>
+      </c>
+      <c r="H43" s="3">
+        <v>84</v>
+      </c>
+      <c r="I43" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="3">
+        <v>85336277</v>
+      </c>
+      <c r="B44" s="3">
+        <v>291940</v>
+      </c>
+      <c r="C44" s="3">
+        <v>250397798</v>
+      </c>
+      <c r="D44" s="3">
+        <v>128000000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>48</v>
+      </c>
+      <c r="F44" s="3">
+        <v>6.8</v>
+      </c>
+      <c r="G44" s="3">
+        <v>37</v>
+      </c>
+      <c r="H44" s="3">
+        <v>64</v>
+      </c>
+      <c r="I44" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="3">
+        <v>261441092</v>
+      </c>
+      <c r="B45" s="3">
+        <v>70467623</v>
+      </c>
+      <c r="C45" s="3">
+        <v>633184355</v>
+      </c>
+      <c r="D45" s="3">
+        <v>92000000</v>
+      </c>
+      <c r="E45">
+        <v>90</v>
+      </c>
+      <c r="F45">
+        <v>8</v>
+      </c>
+      <c r="G45" s="3">
+        <v>97</v>
+      </c>
+      <c r="H45" s="3">
+        <v>75</v>
+      </c>
+      <c r="I45" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="3">
+        <v>608581744</v>
+      </c>
+      <c r="B46" s="3">
+        <v>182687905</v>
+      </c>
+      <c r="C46" s="3">
+        <v>1242805359</v>
+      </c>
+      <c r="D46" s="3">
+        <v>200000000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>80</v>
+      </c>
+      <c r="F46" s="3">
+        <v>7.7</v>
+      </c>
+      <c r="G46" s="3">
+        <v>94</v>
+      </c>
+      <c r="H46" s="3">
+        <v>85</v>
+      </c>
+      <c r="I46" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="3">
+        <v>173008894</v>
+      </c>
+      <c r="B47" s="3">
+        <v>35142554</v>
+      </c>
+      <c r="C47" s="3">
+        <v>347512318</v>
+      </c>
+      <c r="D47" s="3">
+        <v>100000000</v>
+      </c>
+      <c r="E47">
+        <v>39</v>
+      </c>
+      <c r="F47">
+        <v>6.9</v>
+      </c>
+      <c r="G47" s="3">
+        <v>45</v>
+      </c>
+      <c r="H47" s="3">
+        <v>76</v>
+      </c>
+      <c r="I47" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/MovieData.xlsx
+++ b/MovieData.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joel\Documents\GitHub\MachineLearningProject\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="17820" yWindow="3456" windowWidth="21600" windowHeight="11388"/>
+    <workbookView xWindow="17820" yWindow="3450" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -514,7 +519,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -524,23 +529,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" customWidth="1"/>
-    <col min="9" max="9" width="23.33203125" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -566,7 +571,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>292576195</v>
       </c>
@@ -595,7 +600,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44069456</v>
       </c>
@@ -624,7 +629,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>678815482</v>
       </c>
@@ -653,7 +658,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>158119460</v>
       </c>
@@ -682,7 +687,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>145000989</v>
       </c>
@@ -711,7 +716,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>534858444</v>
       </c>
@@ -740,7 +745,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>80197993</v>
       </c>
@@ -769,7 +774,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>90463534</v>
       </c>
@@ -798,7 +803,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>167767189</v>
       </c>
@@ -827,7 +832,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>5904366</v>
       </c>
@@ -856,7 +861,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>117443149</v>
       </c>
@@ -885,7 +890,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>18095701</v>
       </c>
@@ -914,7 +919,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>1752214</v>
       </c>
@@ -943,7 +948,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>4217115</v>
       </c>
@@ -972,7 +977,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>51438175</v>
       </c>
@@ -1001,7 +1006,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>95860116</v>
       </c>
@@ -1030,7 +1035,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>111543479</v>
       </c>
@@ -1059,7 +1064,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>99112101</v>
       </c>
@@ -1088,7 +1093,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>75085668</v>
       </c>
@@ -1096,7 +1101,7 @@
         <v>88850032</v>
       </c>
       <c r="C20" s="3">
-        <v>191232</v>
+        <v>90000000</v>
       </c>
       <c r="D20" s="3">
         <v>18000000</v>
@@ -1117,7 +1122,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>217350219</v>
       </c>
@@ -1146,7 +1151,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>422783777</v>
       </c>
@@ -1175,7 +1180,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>84056472</v>
       </c>
@@ -1204,7 +1209,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>38176783</v>
       </c>
@@ -1233,7 +1238,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>23159305</v>
       </c>
@@ -1262,7 +1267,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>141843612</v>
       </c>
@@ -1291,7 +1296,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>47901582</v>
       </c>
@@ -1320,7 +1325,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>141579773</v>
       </c>
@@ -1349,7 +1354,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>222498679</v>
       </c>
@@ -1378,7 +1383,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>242852179</v>
       </c>
@@ -1407,7 +1412,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>415004880</v>
       </c>
@@ -1436,7 +1441,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>100138851</v>
       </c>
@@ -1465,7 +1470,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>120620254</v>
       </c>
@@ -1494,7 +1499,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>162798565</v>
       </c>
@@ -1523,7 +1528,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>171091819</v>
       </c>
@@ -1552,7 +1557,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>137758063</v>
       </c>
@@ -1581,7 +1586,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>144880014</v>
       </c>
@@ -1610,7 +1615,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>89302687</v>
       </c>
@@ -1639,7 +1644,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>289916256</v>
       </c>
@@ -1668,7 +1673,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>48430258</v>
       </c>
@@ -1697,7 +1702,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>145794338</v>
       </c>
@@ -1726,7 +1731,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>380843261</v>
       </c>
@@ -1755,7 +1760,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>486295561</v>
       </c>
@@ -1784,7 +1789,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>85336277</v>
       </c>
@@ -1813,7 +1818,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>261441092</v>
       </c>
@@ -1842,7 +1847,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>608581744</v>
       </c>
@@ -1871,7 +1876,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>173008894</v>
       </c>

--- a/MovieData.xlsx
+++ b/MovieData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>Budget</t>
   </si>
@@ -186,6 +186,36 @@
   </si>
   <si>
     <t>NATIONAL TREASURE</t>
+  </si>
+  <si>
+    <t>THE GODFATHER</t>
+  </si>
+  <si>
+    <t>FIGHT CLUB</t>
+  </si>
+  <si>
+    <t>CITY OF GOD</t>
+  </si>
+  <si>
+    <t>THE SILENCE OF THE LAMBS</t>
+  </si>
+  <si>
+    <t>SAVING PRIVATE RYAN</t>
+  </si>
+  <si>
+    <t>FORREST GUMP</t>
+  </si>
+  <si>
+    <t>THE MATRIX</t>
+  </si>
+  <si>
+    <t>THE GREEN MILE</t>
+  </si>
+  <si>
+    <t>THE PIANIST</t>
+  </si>
+  <si>
+    <t>THE DEPARTED</t>
   </si>
 </sst>
 </file>
@@ -241,12 +271,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -527,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,7 +574,7 @@
     <col min="6" max="6" width="12.85546875" customWidth="1"/>
     <col min="7" max="7" width="13.140625" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" customWidth="1"/>
-    <col min="9" max="9" width="23.28515625" customWidth="1"/>
+    <col min="9" max="9" width="33.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14.45" x14ac:dyDescent="0.25">
@@ -587,7 +619,7 @@
       <c r="E2">
         <v>74</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="6">
         <v>8.8000000000000007</v>
       </c>
       <c r="G2">
@@ -616,7 +648,7 @@
       <c r="E3">
         <v>87</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="6">
         <v>7.3</v>
       </c>
       <c r="G3">
@@ -645,7 +677,7 @@
       <c r="E4">
         <v>68</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="6">
         <v>8.5</v>
       </c>
       <c r="G4">
@@ -674,7 +706,7 @@
       <c r="E5">
         <v>48</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="6">
         <v>6.4</v>
       </c>
       <c r="G5">
@@ -703,7 +735,7 @@
       <c r="E6">
         <v>51</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="6">
         <v>7.8</v>
       </c>
       <c r="G6">
@@ -732,7 +764,7 @@
       <c r="E7">
         <v>84</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="6">
         <v>9</v>
       </c>
       <c r="G7">
@@ -761,7 +793,7 @@
       <c r="E8">
         <v>52</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="6">
         <v>5.7</v>
       </c>
       <c r="G8">
@@ -790,7 +822,7 @@
       <c r="E9">
         <v>59</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="6">
         <v>6.4</v>
       </c>
       <c r="G9">
@@ -819,7 +851,7 @@
       <c r="E10">
         <v>79</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="6">
         <v>8.1</v>
       </c>
       <c r="G10">
@@ -848,7 +880,7 @@
       <c r="E11">
         <v>92</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="6">
         <v>7.6</v>
       </c>
       <c r="G11">
@@ -877,7 +909,7 @@
       <c r="E12">
         <v>46</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="6">
         <v>5.4</v>
       </c>
       <c r="G12" s="3">
@@ -906,7 +938,7 @@
       <c r="E13" s="3">
         <v>93</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="5">
         <v>7.9</v>
       </c>
       <c r="G13" s="3">
@@ -935,7 +967,7 @@
       <c r="E14" s="3">
         <v>45</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="5">
         <v>7.7</v>
       </c>
       <c r="G14">
@@ -964,7 +996,7 @@
       <c r="E15">
         <v>33</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="6">
         <v>6.9</v>
       </c>
       <c r="G15">
@@ -993,7 +1025,7 @@
       <c r="E16">
         <v>25</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="6">
         <v>5.9</v>
       </c>
       <c r="G16" s="3">
@@ -1022,7 +1054,7 @@
       <c r="E17">
         <v>79</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="6">
         <v>8.1</v>
       </c>
       <c r="G17" s="3">
@@ -1051,7 +1083,7 @@
       <c r="E18" s="3">
         <v>88</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="5">
         <v>7.6</v>
       </c>
       <c r="G18" s="3">
@@ -1080,7 +1112,7 @@
       <c r="E19">
         <v>74</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="6">
         <v>7.3</v>
       </c>
       <c r="G19" s="3">
@@ -1109,7 +1141,7 @@
       <c r="E20" s="3">
         <v>82</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="5">
         <v>8</v>
       </c>
       <c r="G20" s="3">
@@ -1138,7 +1170,7 @@
       <c r="E21">
         <v>86</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="6">
         <v>8</v>
       </c>
       <c r="G21" s="3">
@@ -1167,7 +1199,7 @@
       <c r="E22" s="3">
         <v>83</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="5">
         <v>8.5</v>
       </c>
       <c r="G22" s="3">
@@ -1196,7 +1228,7 @@
       <c r="E23">
         <v>52</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="6">
         <v>6.9</v>
       </c>
       <c r="G23" s="3">
@@ -1225,7 +1257,7 @@
       <c r="E24" s="3">
         <v>60</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="5">
         <v>7.2</v>
       </c>
       <c r="G24" s="3">
@@ -1254,7 +1286,7 @@
       <c r="E25">
         <v>85</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="6">
         <v>8</v>
       </c>
       <c r="G25" s="3">
@@ -1283,7 +1315,7 @@
       <c r="E26" s="3">
         <v>65</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="5">
         <v>7.6</v>
       </c>
       <c r="G26" s="3">
@@ -1312,7 +1344,7 @@
       <c r="E27">
         <v>38</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="6">
         <v>5.4</v>
       </c>
       <c r="G27" s="3">
@@ -1341,7 +1373,7 @@
       <c r="E28" s="3">
         <v>58</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="5">
         <v>6.7</v>
       </c>
       <c r="G28" s="3">
@@ -1370,7 +1402,7 @@
       <c r="E29">
         <v>95</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="6">
         <v>8.3000000000000007</v>
       </c>
       <c r="G29" s="3">
@@ -1399,7 +1431,7 @@
       <c r="E30" s="3">
         <v>88</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="5">
         <v>7.9</v>
       </c>
       <c r="G30" s="3">
@@ -1428,7 +1460,7 @@
       <c r="E31">
         <v>92</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="6">
         <v>8.3000000000000007</v>
       </c>
       <c r="G31" s="3">
@@ -1457,7 +1489,7 @@
       <c r="E32" s="3">
         <v>74</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="5">
         <v>6.9</v>
       </c>
       <c r="G32" s="3">
@@ -1486,7 +1518,7 @@
       <c r="E33">
         <v>71</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="6">
         <v>7.6</v>
       </c>
       <c r="G33" s="3">
@@ -1515,7 +1547,7 @@
       <c r="E34" s="3">
         <v>77</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="5">
         <v>7.2</v>
       </c>
       <c r="G34" s="3">
@@ -1544,7 +1576,7 @@
       <c r="E35">
         <v>79</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="6">
         <v>7.3</v>
       </c>
       <c r="G35" s="3">
@@ -1573,7 +1605,7 @@
       <c r="E36" s="3">
         <v>56</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="5">
         <v>6.5</v>
       </c>
       <c r="G36" s="3">
@@ -1602,7 +1634,7 @@
       <c r="E37">
         <v>83</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="6">
         <v>7.2</v>
       </c>
       <c r="G37" s="3">
@@ -1631,7 +1663,7 @@
       <c r="E38" s="3">
         <v>70</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="5">
         <v>7.4</v>
       </c>
       <c r="G38" s="3">
@@ -1660,7 +1692,7 @@
       <c r="E39">
         <v>78</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="6">
         <v>8.1</v>
       </c>
       <c r="G39" s="3">
@@ -1689,7 +1721,7 @@
       <c r="E40" s="3">
         <v>49</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40" s="5">
         <v>5.8</v>
       </c>
       <c r="G40" s="3">
@@ -1718,7 +1750,7 @@
       <c r="E41">
         <v>73</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="6">
         <v>7.2</v>
       </c>
       <c r="G41" s="3">
@@ -1747,7 +1779,7 @@
       <c r="E42" s="3">
         <v>90</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="5">
         <v>8.1</v>
       </c>
       <c r="G42" s="3">
@@ -1776,7 +1808,7 @@
       <c r="E43">
         <v>77</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="6">
         <v>7.3</v>
       </c>
       <c r="G43" s="3">
@@ -1805,7 +1837,7 @@
       <c r="E44" s="3">
         <v>48</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="5">
         <v>6.8</v>
       </c>
       <c r="G44" s="3">
@@ -1834,7 +1866,7 @@
       <c r="E45">
         <v>90</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="6">
         <v>8</v>
       </c>
       <c r="G45" s="3">
@@ -1863,7 +1895,7 @@
       <c r="E46" s="3">
         <v>80</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46" s="5">
         <v>7.7</v>
       </c>
       <c r="G46" s="3">
@@ -1892,7 +1924,7 @@
       <c r="E47">
         <v>39</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="6">
         <v>6.9</v>
       </c>
       <c r="G47" s="3">
@@ -1903,6 +1935,296 @@
       </c>
       <c r="I47" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>134966411</v>
+      </c>
+      <c r="B48" s="3">
+        <v>302393</v>
+      </c>
+      <c r="C48" s="3">
+        <v>245066411</v>
+      </c>
+      <c r="D48" s="3">
+        <v>6000000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>100</v>
+      </c>
+      <c r="F48" s="5">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G48" s="3">
+        <v>98</v>
+      </c>
+      <c r="H48" s="3">
+        <v>98</v>
+      </c>
+      <c r="I48" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>37030102</v>
+      </c>
+      <c r="B49" s="3">
+        <v>11035485</v>
+      </c>
+      <c r="C49" s="3">
+        <v>71000000</v>
+      </c>
+      <c r="D49" s="3">
+        <v>63000000</v>
+      </c>
+      <c r="E49">
+        <v>66</v>
+      </c>
+      <c r="F49" s="6">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="G49" s="3">
+        <v>79</v>
+      </c>
+      <c r="H49" s="3">
+        <v>96</v>
+      </c>
+      <c r="I49" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>7563397</v>
+      </c>
+      <c r="B50" s="3">
+        <v>114442</v>
+      </c>
+      <c r="C50" s="3">
+        <v>32059295</v>
+      </c>
+      <c r="D50" s="3">
+        <v>3300000</v>
+      </c>
+      <c r="E50" s="3">
+        <v>79</v>
+      </c>
+      <c r="F50" s="5">
+        <v>8.6</v>
+      </c>
+      <c r="G50" s="3">
+        <v>84</v>
+      </c>
+      <c r="H50" s="3">
+        <v>84</v>
+      </c>
+      <c r="I50" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>130742922</v>
+      </c>
+      <c r="B51" s="3">
+        <v>13766814</v>
+      </c>
+      <c r="C51" s="3">
+        <v>272742922</v>
+      </c>
+      <c r="D51" s="3">
+        <v>19000000</v>
+      </c>
+      <c r="E51" s="3">
+        <v>85</v>
+      </c>
+      <c r="F51" s="5">
+        <v>8.6</v>
+      </c>
+      <c r="G51" s="3">
+        <v>96</v>
+      </c>
+      <c r="H51" s="3">
+        <v>95</v>
+      </c>
+      <c r="I51" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>216540909</v>
+      </c>
+      <c r="B52" s="3">
+        <v>30576104</v>
+      </c>
+      <c r="C52" s="3">
+        <v>481840909</v>
+      </c>
+      <c r="D52" s="3">
+        <v>70000000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>91</v>
+      </c>
+      <c r="F52" s="5">
+        <v>8.6</v>
+      </c>
+      <c r="G52" s="3">
+        <v>93</v>
+      </c>
+      <c r="H52" s="3">
+        <v>95</v>
+      </c>
+      <c r="I52" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>330252182</v>
+      </c>
+      <c r="B53" s="3">
+        <v>24450602</v>
+      </c>
+      <c r="C53" s="3">
+        <v>677945399</v>
+      </c>
+      <c r="D53" s="3">
+        <v>55000000</v>
+      </c>
+      <c r="E53" s="3">
+        <v>82</v>
+      </c>
+      <c r="F53" s="5">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="G53" s="3">
+        <v>72</v>
+      </c>
+      <c r="H53" s="3">
+        <v>95</v>
+      </c>
+      <c r="I53" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>171479930</v>
+      </c>
+      <c r="B54" s="3">
+        <v>27788331</v>
+      </c>
+      <c r="C54" s="3">
+        <v>463517383</v>
+      </c>
+      <c r="D54" s="3">
+        <v>63000000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>73</v>
+      </c>
+      <c r="F54" s="5">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="G54" s="3">
+        <v>88</v>
+      </c>
+      <c r="H54" s="3">
+        <v>85</v>
+      </c>
+      <c r="I54" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>136801374</v>
+      </c>
+      <c r="B55" s="3">
+        <v>18017152</v>
+      </c>
+      <c r="C55" s="3">
+        <v>286801374</v>
+      </c>
+      <c r="D55" s="3">
+        <v>60000000</v>
+      </c>
+      <c r="E55" s="3">
+        <v>61</v>
+      </c>
+      <c r="F55" s="5">
+        <v>8.6</v>
+      </c>
+      <c r="G55" s="3">
+        <v>79</v>
+      </c>
+      <c r="H55" s="3">
+        <v>94</v>
+      </c>
+      <c r="I55" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>32572577</v>
+      </c>
+      <c r="B56" s="3">
+        <v>111261</v>
+      </c>
+      <c r="C56" s="3">
+        <v>120072577</v>
+      </c>
+      <c r="D56" s="3">
+        <v>35000000</v>
+      </c>
+      <c r="E56" s="3">
+        <v>85</v>
+      </c>
+      <c r="F56" s="5">
+        <v>8.5</v>
+      </c>
+      <c r="G56" s="3">
+        <v>95</v>
+      </c>
+      <c r="H56" s="3">
+        <v>95</v>
+      </c>
+      <c r="I56" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>132384315</v>
+      </c>
+      <c r="B57" s="3">
+        <v>26887467</v>
+      </c>
+      <c r="C57" s="3">
+        <v>289847354</v>
+      </c>
+      <c r="D57" s="3">
+        <v>90000000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>85</v>
+      </c>
+      <c r="F57" s="5">
+        <v>8.5</v>
+      </c>
+      <c r="G57" s="3">
+        <v>91</v>
+      </c>
+      <c r="H57" s="3">
+        <v>94</v>
+      </c>
+      <c r="I57" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
